--- a/Week_02/jvm-netty-week2/src/main/java/com/johar/jeektime/jvmnettyweek2/question1/GC总结.xlsx
+++ b/Week_02/jvm-netty-week2/src/main/java/com/johar/jeektime/jvmnettyweek2/question1/GC总结.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" activeTab="2"/>
+    <workbookView windowWidth="28125" windowHeight="12540" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="SerialGC" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="28">
   <si>
     <t>GC算法</t>
   </si>
@@ -107,12 +107,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
+  <numFmts count="6">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="177" formatCode="0.000_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -132,14 +133,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -147,20 +141,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -174,63 +154,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -253,7 +178,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -264,6 +204,67 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -282,31 +283,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -318,31 +337,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -360,19 +355,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -384,13 +391,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -402,25 +409,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -432,36 +451,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -485,6 +486,34 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -500,61 +529,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -582,6 +561,41 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -590,10 +604,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -602,133 +616,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -741,9 +755,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -759,9 +770,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -790,17 +798,23 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1650,10 +1664,686 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="" altLang="zh-CN"/>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>SerialGC</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="zh-CN"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.479027777777778"/>
+          <c:y val="0.0347222222222222"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>SerialGC!$C$24</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Throughput(%)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>SerialGC!$B$25:$B$28</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>512m</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1g</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2g</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4g</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>SerialGC!$C$25:$C$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>26.972</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>61.007</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>70.468</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>78.397</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>SerialGC!$D$24</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Avg Pause GC Time(ms)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>SerialGC!$B$25:$B$28</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>512m</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1g</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2g</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4g</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>SerialGC!$D$25:$D$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>54.9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30.9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>53.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>SerialGC!$E$24</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Max Pause GC Time(ms)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>SerialGC!$B$25:$B$28</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>512m</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1g</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2g</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4g</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>SerialGC!$E$25:$E$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>110</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>SerialGC!$F$24</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total GC Count(百)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>SerialGC!$B$25:$B$28</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>512m</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1g</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2g</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4g</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>SerialGC!$F$25:$F$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>7.97</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.55</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.39</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>SerialGC!$G$24</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total GC Time(s)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>SerialGC!$B$25:$B$28</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>512m</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1g</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2g</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4g</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>SerialGC!$G$25:$G$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>43.76</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>23.34</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17.64</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12.86</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="412610204"/>
+        <c:axId val="233070674"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="412610204"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="233070674"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="233070674"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="412610204"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr lang="zh-CN"/>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr defTabSz="914400">
+              <a:defRPr lang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
               <a:t>Parallel</a:t>
             </a:r>
-            <a:endParaRPr lang="" altLang="zh-CN"/>
+            <a:endParaRPr lang="en-US" altLang="zh-CN"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -2369,7 +3059,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
@@ -2403,7 +3093,676 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="" altLang="en-US"/>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>ParallelGC</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="zh-CN"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ParallelGC!$C$33</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Throughput(%)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>ParallelGC!$B$34:$B$37</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>512m</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1g</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2g</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4g</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>ParallelGC!$C$34:$C$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>11.101</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>54.351</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>62.282</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>74.448</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ParallelGC!$D$33</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Avg Pause GC Time(ms)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>ParallelGC!$B$34:$B$37</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>512m</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1g</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2g</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4g</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>ParallelGC!$D$34:$D$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>57.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ParallelGC!$E$33</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Max Pause GC Time(ms)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>ParallelGC!$B$34:$B$37</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>512m</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1g</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2g</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4g</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>ParallelGC!$E$34:$E$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ParallelGC!$F$33</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total GC Count(百)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>ParallelGC!$B$34:$B$37</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>512m</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1g</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2g</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4g</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>ParallelGC!$F$34:$F$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>9.03</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.61</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.56</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.83</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ParallelGC!$G$33</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total GC Time(s)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>ParallelGC!$B$34:$B$37</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>512m</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1g</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2g</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4g</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>ParallelGC!$G$34:$G$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>53.25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>27.34</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>22.53</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.37</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="80579738"/>
+        <c:axId val="644161806"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="80579738"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="644161806"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="644161806"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="80579738"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr lang="zh-CN"/>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr defTabSz="914400">
+              <a:defRPr lang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="en-US"/>
               <a:t>ConcMarkSweep</a:t>
             </a:r>
             <a:r>
@@ -3124,7 +4483,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
@@ -3158,7 +4517,508 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="" altLang="en-US"/>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>ConcMarkSweepGC</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="zh-CN"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ConcMarkSweepGC!$C$28</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Throughput(%)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>ConcMarkSweepGC!$B$29:$B$32</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>512m</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1g</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2g</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4g</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>ConcMarkSweepGC!$C$29:$C$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>26.846</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>67.032</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>75.399</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>74.3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ConcMarkSweepGC!$D$28</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Avg Pause GC Time(ms)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>ConcMarkSweepGC!$B$29:$B$32</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>512m</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1g</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2g</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4g</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>ConcMarkSweepGC!$D$29:$D$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>24.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>27.9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>46.1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ConcMarkSweepGC!$E$28</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Max Pause GC Time(ms)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>ConcMarkSweepGC!$B$29:$B$32</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>512m</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1g</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2g</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4g</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>ConcMarkSweepGC!$E$29:$E$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="152841677"/>
+        <c:axId val="620083656"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="152841677"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="620083656"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="620083656"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="152841677"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr lang="zh-CN"/>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr defTabSz="914400">
+              <a:defRPr lang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="en-US"/>
               <a:t>G1</a:t>
             </a:r>
             <a:r>
@@ -3879,7 +5739,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
@@ -4681,6 +6541,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
@@ -6694,6 +8674,1515 @@
 </file>
 
 <file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -7236,6 +10725,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>311150</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>82550</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="图表 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="6388100" y="3937000"/>
+        <a:ext cx="4572000" cy="2743200"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -7276,6 +10795,36 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>6350</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>368300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>463550</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="7454900" y="5854700"/>
+        <a:ext cx="4572000" cy="2743200"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -7306,6 +10855,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>622300</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>393700</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="图表 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="6013450" y="4006850"/>
+        <a:ext cx="4572000" cy="2743200"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -7351,13 +10930,13 @@
       <xdr:col>8</xdr:col>
       <xdr:colOff>301625</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>158750</xdr:rowOff>
+      <xdr:rowOff>149225</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>73025</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>158750</xdr:rowOff>
+      <xdr:rowOff>149225</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -7365,7 +10944,7 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="6388100" y="4102100"/>
+        <a:off x="6388100" y="4092575"/>
         <a:ext cx="4572000" cy="2743200"/>
       </xdr:xfrm>
       <a:graphic>
@@ -7639,8 +11218,8 @@
   <sheetPr/>
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I36" sqref="I36"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="K47" sqref="K47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -7649,22 +11228,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="16"/>
-      <c r="B2" s="16"/>
+      <c r="A2" s="14"/>
+      <c r="B2" s="14"/>
       <c r="C2" t="s">
         <v>3</v>
       </c>
@@ -7679,202 +11258,202 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="14" t="s">
         <v>7</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="18">
+      <c r="C3" s="16">
         <v>0.0025</v>
       </c>
-      <c r="D3" s="18">
+      <c r="D3" s="16">
         <v>0.0596</v>
       </c>
-      <c r="E3" s="19">
+      <c r="E3" s="9">
         <v>0</v>
       </c>
-      <c r="F3" s="19">
+      <c r="F3" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="22"/>
-      <c r="B4" s="20" t="s">
+      <c r="A4" s="14"/>
+      <c r="B4" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="18">
+      <c r="C4" s="16">
         <v>0.01</v>
       </c>
-      <c r="D4" s="18">
+      <c r="D4" s="16">
         <v>0.6874</v>
       </c>
-      <c r="E4" s="18">
+      <c r="E4" s="16">
         <v>0</v>
       </c>
-      <c r="F4" s="18">
+      <c r="F4" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="22"/>
+      <c r="A5" s="14"/>
       <c r="B5" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="18">
+      <c r="C5" s="16">
         <v>0.0088</v>
       </c>
-      <c r="D5" s="18">
+      <c r="D5" s="16">
         <v>0.0146</v>
       </c>
-      <c r="E5" s="18">
+      <c r="E5" s="16">
         <v>0.319</v>
       </c>
-      <c r="F5" s="18">
+      <c r="F5" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="22"/>
+      <c r="A6" s="14"/>
       <c r="B6" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="18">
+      <c r="C6" s="16">
         <v>0.1807</v>
       </c>
-      <c r="D6" s="18">
+      <c r="D6" s="16">
         <v>0.0013</v>
       </c>
-      <c r="E6" s="18">
+      <c r="E6" s="16">
         <v>0.4905</v>
       </c>
-      <c r="F6" s="18">
+      <c r="F6" s="16">
         <v>0.0544</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="22"/>
+      <c r="A7" s="14"/>
       <c r="B7" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="18">
+      <c r="C7" s="16">
         <v>0</v>
       </c>
-      <c r="D7" s="18">
+      <c r="D7" s="16">
         <v>0.0543</v>
       </c>
-      <c r="E7" s="18">
+      <c r="E7" s="16">
         <v>0</v>
       </c>
-      <c r="F7" s="19">
+      <c r="F7" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="22"/>
+      <c r="A8" s="14"/>
       <c r="B8" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="18">
+      <c r="C8" s="16">
         <v>0.2447</v>
       </c>
-      <c r="D8" s="18">
+      <c r="D8" s="16">
         <v>0</v>
       </c>
-      <c r="E8" s="18">
+      <c r="E8" s="16">
         <v>0.0429</v>
       </c>
-      <c r="F8" s="18">
+      <c r="F8" s="16">
         <v>0.728</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="22"/>
+      <c r="A9" s="14"/>
       <c r="B9" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="18">
+      <c r="C9" s="16">
         <v>0.394</v>
       </c>
-      <c r="D9" s="18">
+      <c r="D9" s="16">
         <v>0.0543</v>
       </c>
-      <c r="E9" s="18">
+      <c r="E9" s="16">
         <v>0.0262</v>
       </c>
-      <c r="F9" s="18">
+      <c r="F9" s="16">
         <v>0.0753</v>
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="22"/>
+      <c r="A10" s="14"/>
       <c r="B10" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="18">
+      <c r="C10" s="16">
         <v>0.1468</v>
       </c>
-      <c r="D10" s="18">
+      <c r="D10" s="16">
         <v>0.1801</v>
       </c>
-      <c r="E10" s="18">
+      <c r="E10" s="16">
         <v>0.0738</v>
       </c>
-      <c r="F10" s="18">
+      <c r="F10" s="16">
         <v>0.0921</v>
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="22"/>
+      <c r="A11" s="14"/>
       <c r="B11" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="18">
+      <c r="C11" s="16">
         <v>0.01</v>
       </c>
-      <c r="D11" s="19">
+      <c r="D11" s="9">
         <v>0.0026</v>
       </c>
-      <c r="E11" s="18">
+      <c r="E11" s="16">
         <v>0.0405</v>
       </c>
-      <c r="F11" s="18">
+      <c r="F11" s="16">
         <v>0.0377</v>
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="22"/>
+      <c r="A12" s="14"/>
       <c r="B12" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="18">
+      <c r="C12" s="16">
         <v>0.0013</v>
       </c>
-      <c r="D12" s="18">
+      <c r="D12" s="16">
         <v>0</v>
       </c>
-      <c r="E12" s="18">
+      <c r="E12" s="16">
         <v>0.0048</v>
       </c>
-      <c r="F12" s="18">
+      <c r="F12" s="16">
         <v>0.0042</v>
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="22"/>
+      <c r="A13" s="14"/>
       <c r="B13" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="18">
+      <c r="C13" s="16">
         <v>0.0013</v>
       </c>
-      <c r="D13" s="18">
+      <c r="D13" s="16">
         <v>0</v>
       </c>
-      <c r="E13" s="18">
+      <c r="E13" s="16">
         <v>0.0024</v>
       </c>
-      <c r="F13" s="18">
+      <c r="F13" s="16">
         <v>0.0042</v>
       </c>
     </row>
@@ -7888,103 +11467,103 @@
       <c r="C24" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="15" t="s">
+      <c r="D24" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E24" s="15" t="s">
+      <c r="E24" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="F24" s="15" t="s">
+      <c r="F24" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="G24" s="15" t="s">
+      <c r="G24" s="13" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="3" t="s">
+      <c r="A25" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C25" s="2">
-        <v>41.71</v>
+        <v>26.972</v>
       </c>
       <c r="D25" s="2">
-        <v>3.93</v>
+        <v>54.9</v>
       </c>
       <c r="E25" s="2">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="F25" s="2">
-        <v>103.61</v>
+        <v>7.97</v>
       </c>
       <c r="G25" s="2">
-        <v>37.601</v>
+        <v>43.76</v>
       </c>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="3"/>
+      <c r="A26" s="1"/>
       <c r="B26" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C26" s="2">
-        <v>65.249</v>
+        <v>61.007</v>
       </c>
       <c r="D26" s="2">
-        <v>6.55</v>
+        <v>30.9</v>
       </c>
       <c r="E26" s="2">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="F26" s="2">
-        <v>36.96</v>
+        <v>7.55</v>
       </c>
       <c r="G26" s="2">
-        <v>21.687</v>
+        <v>23.34</v>
       </c>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="3"/>
+      <c r="A27" s="1"/>
       <c r="B27" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C27" s="2">
-        <v>73.081</v>
+        <v>70.468</v>
       </c>
       <c r="D27" s="2">
-        <v>16.5</v>
+        <v>42</v>
       </c>
       <c r="E27" s="2">
-        <v>50</v>
+        <v>110</v>
       </c>
       <c r="F27" s="2">
-        <v>11.24</v>
+        <v>4.2</v>
       </c>
       <c r="G27" s="2">
-        <v>16.517</v>
+        <v>17.64</v>
       </c>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="3"/>
+      <c r="A28" s="1"/>
       <c r="B28" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C28" s="2">
-        <v>81.364</v>
+        <v>78.397</v>
       </c>
       <c r="D28" s="2">
-        <v>50.9</v>
+        <v>53.8</v>
       </c>
       <c r="E28" s="2">
-        <v>70</v>
+        <v>110</v>
       </c>
       <c r="F28" s="2">
-        <v>2.32</v>
+        <v>2.39</v>
       </c>
       <c r="G28" s="2">
-        <v>11.187</v>
+        <v>12.86</v>
       </c>
     </row>
   </sheetData>
@@ -8006,8 +11585,8 @@
   <sheetPr/>
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K26" sqref="K26"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="L58" sqref="L58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -8016,22 +11595,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="16"/>
-      <c r="B2" s="16"/>
+      <c r="A2" s="14"/>
+      <c r="B2" s="14"/>
       <c r="C2" t="s">
         <v>3</v>
       </c>
@@ -8046,202 +11625,202 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="14" t="s">
         <v>25</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="18">
+      <c r="C3" s="16">
         <v>0.0299</v>
       </c>
-      <c r="D3" s="18">
+      <c r="D3" s="16">
         <v>0.1499</v>
       </c>
-      <c r="E3" s="19">
+      <c r="E3" s="9">
         <v>0.0018</v>
       </c>
-      <c r="F3" s="19">
+      <c r="F3" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="22"/>
-      <c r="B4" s="20" t="s">
+      <c r="A4" s="14"/>
+      <c r="B4" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="18">
+      <c r="C4" s="16">
         <v>0</v>
       </c>
-      <c r="D4" s="18">
+      <c r="D4" s="16">
         <v>0.6993</v>
       </c>
-      <c r="E4" s="18">
+      <c r="E4" s="16">
         <v>0.0719</v>
       </c>
-      <c r="F4" s="18">
+      <c r="F4" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="22"/>
+      <c r="A5" s="14"/>
       <c r="B5" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="18">
+      <c r="C5" s="16">
         <v>0</v>
       </c>
-      <c r="D5" s="18">
+      <c r="D5" s="16">
         <v>0.0123</v>
       </c>
-      <c r="E5" s="18">
+      <c r="E5" s="16">
         <v>0.0881</v>
       </c>
-      <c r="F5" s="18">
+      <c r="F5" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="22"/>
+      <c r="A6" s="14"/>
       <c r="B6" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="18">
+      <c r="C6" s="16">
         <v>0</v>
       </c>
-      <c r="D6" s="18">
+      <c r="D6" s="16">
         <v>0</v>
       </c>
-      <c r="E6" s="18">
+      <c r="E6" s="16">
         <v>0.7572</v>
       </c>
-      <c r="F6" s="18">
+      <c r="F6" s="16">
         <v>0.0318</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="22"/>
+      <c r="A7" s="14"/>
       <c r="B7" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="18">
+      <c r="C7" s="16">
         <v>0</v>
       </c>
-      <c r="D7" s="18">
+      <c r="D7" s="16">
         <v>0</v>
       </c>
-      <c r="E7" s="18">
+      <c r="E7" s="16">
         <v>0</v>
       </c>
-      <c r="F7" s="19">
+      <c r="F7" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="22"/>
+      <c r="A8" s="14"/>
       <c r="B8" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="18">
+      <c r="C8" s="16">
         <v>0.01</v>
       </c>
-      <c r="D8" s="18">
+      <c r="D8" s="16">
         <v>0</v>
       </c>
-      <c r="E8" s="18">
+      <c r="E8" s="16">
         <v>0.0108</v>
       </c>
-      <c r="F8" s="18">
+      <c r="F8" s="16">
         <v>0.265</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="22"/>
+      <c r="A9" s="14"/>
       <c r="B9" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="18">
+      <c r="C9" s="16">
         <v>0.8992</v>
       </c>
-      <c r="D9" s="18">
+      <c r="D9" s="16">
         <v>0</v>
       </c>
-      <c r="E9" s="18">
+      <c r="E9" s="16">
         <v>0</v>
       </c>
-      <c r="F9" s="18">
+      <c r="F9" s="16">
         <v>0.6502</v>
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="22"/>
+      <c r="A10" s="14"/>
       <c r="B10" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="18">
+      <c r="C10" s="16">
         <v>0.0587</v>
       </c>
-      <c r="D10" s="18">
+      <c r="D10" s="16">
         <v>0.1197</v>
       </c>
-      <c r="E10" s="18">
+      <c r="E10" s="16">
         <v>0.0072</v>
       </c>
-      <c r="F10" s="18">
+      <c r="F10" s="16">
         <v>0.0177</v>
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="22"/>
+      <c r="A11" s="14"/>
       <c r="B11" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="18">
+      <c r="C11" s="16">
         <v>0.0022</v>
       </c>
-      <c r="D11" s="19">
+      <c r="D11" s="9">
         <v>0.017</v>
       </c>
-      <c r="E11" s="18">
+      <c r="E11" s="16">
         <v>0.0576</v>
       </c>
-      <c r="F11" s="18">
+      <c r="F11" s="16">
         <v>0.0141</v>
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="22"/>
+      <c r="A12" s="14"/>
       <c r="B12" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="18">
+      <c r="C12" s="16">
         <v>0</v>
       </c>
-      <c r="D12" s="18">
+      <c r="D12" s="16">
         <v>0.0009</v>
       </c>
-      <c r="E12" s="18">
+      <c r="E12" s="16">
         <v>0.0054</v>
       </c>
-      <c r="F12" s="18">
+      <c r="F12" s="16">
         <v>0.0177</v>
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="22"/>
+      <c r="A13" s="14"/>
       <c r="B13" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="18">
+      <c r="C13" s="16">
         <v>0</v>
       </c>
-      <c r="D13" s="18">
+      <c r="D13" s="16">
         <v>0.0009</v>
       </c>
-      <c r="E13" s="18">
+      <c r="E13" s="16">
         <v>0</v>
       </c>
-      <c r="F13" s="18">
+      <c r="F13" s="16">
         <v>0.0035</v>
       </c>
     </row>
@@ -8255,103 +11834,103 @@
       <c r="C33" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D33" s="15" t="s">
+      <c r="D33" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E33" s="15" t="s">
+      <c r="E33" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="F33" s="15" t="s">
+      <c r="F33" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="G33" s="15" t="s">
+      <c r="G33" s="13" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="3" t="s">
+      <c r="A34" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C34" s="2">
-        <v>41.71</v>
+        <v>11.101</v>
       </c>
       <c r="D34" s="2">
-        <v>3.93</v>
+        <v>59</v>
       </c>
       <c r="E34" s="2">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="F34" s="2">
-        <v>103.61</v>
+        <v>9.03</v>
       </c>
       <c r="G34" s="2">
-        <v>37.601</v>
+        <v>53.25</v>
       </c>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="3"/>
+      <c r="A35" s="1"/>
       <c r="B35" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C35" s="2">
-        <v>65.249</v>
+        <v>54.351</v>
       </c>
       <c r="D35" s="2">
-        <v>6.55</v>
+        <v>25.8</v>
       </c>
       <c r="E35" s="2">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="F35" s="2">
-        <v>36.96</v>
+        <v>10.61</v>
       </c>
       <c r="G35" s="2">
-        <v>21.687</v>
+        <v>27.34</v>
       </c>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="3"/>
+      <c r="A36" s="1"/>
       <c r="B36" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C36" s="2">
-        <v>73.081</v>
+        <v>62.282</v>
       </c>
       <c r="D36" s="2">
-        <v>16.5</v>
+        <v>40.5</v>
       </c>
       <c r="E36" s="2">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="F36" s="2">
-        <v>11.24</v>
+        <v>5.56</v>
       </c>
       <c r="G36" s="2">
-        <v>16.517</v>
+        <v>22.53</v>
       </c>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="3"/>
+      <c r="A37" s="1"/>
       <c r="B37" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C37" s="2">
-        <v>81.364</v>
+        <v>74.448</v>
       </c>
       <c r="D37" s="2">
-        <v>50.9</v>
+        <v>57.8</v>
       </c>
       <c r="E37" s="2">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="F37" s="2">
-        <v>2.32</v>
+        <v>2.83</v>
       </c>
       <c r="G37" s="2">
-        <v>11.187</v>
+        <v>16.37</v>
       </c>
     </row>
   </sheetData>
@@ -8373,8 +11952,8 @@
   <sheetPr/>
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="H52" sqref="H52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -8383,22 +11962,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="16"/>
-      <c r="B2" s="16"/>
+      <c r="A2" s="14"/>
+      <c r="B2" s="14"/>
       <c r="C2" t="s">
         <v>3</v>
       </c>
@@ -8413,202 +11992,202 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="15" t="s">
         <v>26</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="18">
+      <c r="C3" s="16">
         <v>0.6683</v>
       </c>
-      <c r="D3" s="18">
+      <c r="D3" s="16">
         <v>0.3644</v>
       </c>
-      <c r="E3" s="19">
+      <c r="E3" s="9">
         <v>0.2841</v>
       </c>
-      <c r="F3" s="19">
+      <c r="F3" s="9">
         <v>0.1084</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="17"/>
-      <c r="B4" s="20" t="s">
+      <c r="A4" s="15"/>
+      <c r="B4" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="18">
+      <c r="C4" s="16">
         <v>0.0034</v>
       </c>
-      <c r="D4" s="18">
+      <c r="D4" s="16">
         <v>0.5287</v>
       </c>
-      <c r="E4" s="18">
+      <c r="E4" s="16">
         <v>0</v>
       </c>
-      <c r="F4" s="18">
+      <c r="F4" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="17"/>
+      <c r="A5" s="15"/>
       <c r="B5" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="18">
+      <c r="C5" s="16">
         <v>0</v>
       </c>
-      <c r="D5" s="18">
+      <c r="D5" s="16">
         <v>0.0518</v>
       </c>
-      <c r="E5" s="18">
+      <c r="E5" s="16">
         <v>0.0985</v>
       </c>
-      <c r="F5" s="18">
+      <c r="F5" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="17"/>
+      <c r="A6" s="15"/>
       <c r="B6" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="18">
+      <c r="C6" s="16">
         <v>0</v>
       </c>
-      <c r="D6" s="18">
+      <c r="D6" s="16">
         <v>0.004</v>
       </c>
-      <c r="E6" s="18">
+      <c r="E6" s="16">
         <v>0.6061</v>
       </c>
-      <c r="F6" s="18">
+      <c r="F6" s="16">
         <v>0.012</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="17"/>
+      <c r="A7" s="15"/>
       <c r="B7" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="18">
+      <c r="C7" s="16">
         <v>0</v>
       </c>
-      <c r="D7" s="18">
+      <c r="D7" s="16">
         <v>0</v>
       </c>
-      <c r="E7" s="18">
+      <c r="E7" s="16">
         <v>0</v>
       </c>
-      <c r="F7" s="19">
+      <c r="F7" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="17"/>
+      <c r="A8" s="15"/>
       <c r="B8" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="18">
+      <c r="C8" s="16">
         <v>0</v>
       </c>
-      <c r="D8" s="18">
+      <c r="D8" s="16">
         <v>0</v>
       </c>
-      <c r="E8" s="18">
+      <c r="E8" s="16">
         <v>0.0019</v>
       </c>
-      <c r="F8" s="18">
+      <c r="F8" s="16">
         <v>0.8102</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="17"/>
+      <c r="A9" s="15"/>
       <c r="B9" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="18">
+      <c r="C9" s="16">
         <v>0.019</v>
       </c>
-      <c r="D9" s="18">
+      <c r="D9" s="16">
         <v>0.0008</v>
       </c>
-      <c r="E9" s="18">
+      <c r="E9" s="16">
         <v>0.0095</v>
       </c>
-      <c r="F9" s="18">
+      <c r="F9" s="16">
         <v>0.0151</v>
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="17"/>
+      <c r="A10" s="15"/>
       <c r="B10" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="18">
+      <c r="C10" s="16">
         <v>0.1913</v>
       </c>
-      <c r="D10" s="18">
+      <c r="D10" s="16">
         <v>0.0413</v>
       </c>
-      <c r="E10" s="18">
+      <c r="E10" s="16">
         <v>0</v>
       </c>
-      <c r="F10" s="18">
+      <c r="F10" s="16">
         <v>0.0241</v>
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="17"/>
+      <c r="A11" s="15"/>
       <c r="B11" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="18">
+      <c r="C11" s="16">
         <v>0.0984</v>
       </c>
-      <c r="D11" s="19">
+      <c r="D11" s="9">
         <v>0.0057</v>
       </c>
-      <c r="E11" s="18">
+      <c r="E11" s="16">
         <v>0</v>
       </c>
-      <c r="F11" s="18">
+      <c r="F11" s="16">
         <v>0.0211</v>
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="17"/>
+      <c r="A12" s="15"/>
       <c r="B12" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="18">
+      <c r="C12" s="16">
         <v>0.0117</v>
       </c>
-      <c r="D12" s="18">
+      <c r="D12" s="16">
         <v>0.0024</v>
       </c>
-      <c r="E12" s="18">
+      <c r="E12" s="16">
         <v>0</v>
       </c>
-      <c r="F12" s="18">
+      <c r="F12" s="16">
         <v>0.006</v>
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="17"/>
+      <c r="A13" s="15"/>
       <c r="B13" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="18">
+      <c r="C13" s="16">
         <v>0.0059</v>
       </c>
-      <c r="D13" s="18">
+      <c r="D13" s="16">
         <v>0.0008</v>
       </c>
-      <c r="E13" s="18">
+      <c r="E13" s="16">
         <v>0</v>
       </c>
-      <c r="F13" s="18">
+      <c r="F13" s="16">
         <v>0.003</v>
       </c>
     </row>
@@ -8622,21 +12201,17 @@
       <c r="C28" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D28" s="15" t="s">
+      <c r="D28" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="E28" s="15" t="s">
+      <c r="E28" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="F28" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="G28" s="15" t="s">
-        <v>23</v>
-      </c>
+      <c r="F28" s="19"/>
+      <c r="G28" s="19"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="21" t="s">
+      <c r="A29" s="20" t="s">
         <v>27</v>
       </c>
       <c r="B29" s="2" t="s">
@@ -8645,81 +12220,65 @@
       <c r="C29" s="2">
         <v>26.846</v>
       </c>
-      <c r="D29" s="2">
+      <c r="D29" s="21">
         <v>24.5</v>
       </c>
       <c r="E29" s="2">
         <v>170</v>
       </c>
-      <c r="F29" s="2">
-        <v>6.01</v>
-      </c>
-      <c r="G29" s="2">
-        <v>37.601</v>
-      </c>
+      <c r="F29" s="7"/>
+      <c r="G29" s="22"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="21"/>
+      <c r="A30" s="20"/>
       <c r="B30" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C30" s="2">
-        <v>65.249</v>
-      </c>
-      <c r="D30" s="2">
-        <v>6.55</v>
+        <v>67.032</v>
+      </c>
+      <c r="D30" s="21">
+        <v>16</v>
       </c>
       <c r="E30" s="2">
-        <v>30</v>
-      </c>
-      <c r="F30" s="2">
-        <v>36.96</v>
-      </c>
-      <c r="G30" s="2">
-        <v>21.687</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="21"/>
+      <c r="A31" s="20"/>
       <c r="B31" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C31" s="2">
-        <v>73.081</v>
-      </c>
-      <c r="D31" s="2">
-        <v>16.5</v>
+        <v>75.399</v>
+      </c>
+      <c r="D31" s="21">
+        <v>27.9</v>
       </c>
       <c r="E31" s="2">
-        <v>50</v>
-      </c>
-      <c r="F31" s="2">
-        <v>11.24</v>
-      </c>
-      <c r="G31" s="2">
-        <v>16.517</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="21"/>
+      <c r="A32" s="20"/>
       <c r="B32" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C32" s="2">
-        <v>81.364</v>
-      </c>
-      <c r="D32" s="2">
-        <v>50.9</v>
+        <v>74.3</v>
+      </c>
+      <c r="D32" s="21">
+        <v>46.1</v>
       </c>
       <c r="E32" s="2">
-        <v>70</v>
-      </c>
-      <c r="F32" s="2">
-        <v>2.32</v>
-      </c>
-      <c r="G32" s="2">
-        <v>11.187</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -8740,8 +12299,8 @@
   <sheetPr/>
   <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="F40" sqref="F40"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="L46" sqref="L46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -8782,276 +12341,276 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="3">
         <v>0.92</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="3">
         <v>0.864</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="4">
         <v>0.5031</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="4">
         <v>0.1187</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="3"/>
-      <c r="B4" s="6" t="s">
+      <c r="A4" s="1"/>
+      <c r="B4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="3">
         <v>0.0001</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="3">
         <v>0.1357</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="3">
         <v>0.249</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="3">
         <v>0.0457</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="3"/>
+      <c r="A5" s="1"/>
       <c r="B5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="3">
         <v>0.0004</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="3">
         <v>0.0003</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="3">
         <v>0.0847</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="3">
         <v>0.0685</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="3"/>
+      <c r="A6" s="1"/>
       <c r="B6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="3">
         <v>0.0172</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="3">
         <v>0</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="3">
         <v>0.1245</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="3">
         <v>0.0091</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="3"/>
+      <c r="A7" s="1"/>
       <c r="B7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="3">
         <v>0</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="3">
         <v>0</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="3">
         <v>0</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="3"/>
+      <c r="A8" s="1"/>
       <c r="B8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="3">
         <v>0.0616</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="3">
         <v>0</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="3">
         <v>0.0388</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="3">
         <v>0.0502</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="3"/>
+      <c r="A9" s="1"/>
       <c r="B9" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="3">
         <v>0.0006</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="3">
         <v>0</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="3">
         <v>0</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="3">
         <v>0.4521</v>
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="3"/>
+      <c r="A10" s="1"/>
       <c r="B10" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="3">
         <v>0.001</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="3">
         <v>0</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="3">
         <v>0</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="3">
         <v>0.2557</v>
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="3"/>
+      <c r="A11" s="1"/>
       <c r="B11" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="3">
         <v>0</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="4">
         <v>0</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="3">
         <v>0</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="3"/>
+      <c r="A12" s="1"/>
       <c r="B12" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="3">
         <v>0</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="3">
         <v>0</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="3">
         <v>0</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F12" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="3"/>
+      <c r="A13" s="1"/>
       <c r="B13" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="3">
         <v>0</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="3">
         <v>0</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="3">
         <v>0</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F13" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="7"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
+      <c r="A21" s="6"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="7"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
+      <c r="A22" s="6"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="9"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
+      <c r="A23" s="6"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="9"/>
-      <c r="B24" s="12"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
+      <c r="A24" s="6"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="9"/>
-      <c r="B25" s="8"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
+      <c r="A25" s="6"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="9"/>
-      <c r="B26" s="8"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="14"/>
+      <c r="A26" s="6"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="12"/>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="9"/>
-      <c r="B27" s="8"/>
-      <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13"/>
+      <c r="A27" s="6"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="9"/>
-      <c r="B28" s="8"/>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
+      <c r="A28" s="6"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="9"/>
-      <c r="B29" s="8"/>
-      <c r="C29" s="13"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="13"/>
+      <c r="A29" s="6"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
     </row>
     <row r="32" ht="40.5" spans="1:7">
       <c r="A32" s="2" t="s">
@@ -9063,21 +12622,21 @@
       <c r="C32" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D32" s="15" t="s">
+      <c r="D32" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E32" s="15" t="s">
+      <c r="E32" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="F32" s="15" t="s">
+      <c r="F32" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="G32" s="15" t="s">
+      <c r="G32" s="13" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="3" t="s">
+      <c r="A33" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B33" s="2" t="s">
@@ -9100,7 +12659,7 @@
       </c>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="3"/>
+      <c r="A34" s="1"/>
       <c r="B34" s="2" t="s">
         <v>4</v>
       </c>
@@ -9121,7 +12680,7 @@
       </c>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="3"/>
+      <c r="A35" s="1"/>
       <c r="B35" s="2" t="s">
         <v>5</v>
       </c>
@@ -9142,7 +12701,7 @@
       </c>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="3"/>
+      <c r="A36" s="1"/>
       <c r="B36" s="2" t="s">
         <v>6</v>
       </c>
